--- a/选课名单.xlsx
+++ b/选课名单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Advanced-Programming-2018-Autumn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="398">
   <si>
     <t>中国海洋大学上课班级选课学生</t>
   </si>
@@ -561,12 +561,6 @@
     <t>52</t>
   </si>
   <si>
-    <t>18020022043</t>
-  </si>
-  <si>
-    <t>杨震栋</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -1210,9 +1204,6 @@
   </si>
   <si>
     <t>材料科学与工程 2018</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
   <si>
     <t>18180021021</t>
@@ -2209,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3403,10 +3394,10 @@
         <v>179</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>58</v>
@@ -3421,13 +3412,13 @@
     </row>
     <row r="61" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>58</v>
@@ -3442,13 +3433,13 @@
     </row>
     <row r="62" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>58</v>
@@ -3463,13 +3454,13 @@
     </row>
     <row r="63" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>58</v>
@@ -3484,13 +3475,13 @@
     </row>
     <row r="64" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>58</v>
@@ -3505,13 +3496,13 @@
     </row>
     <row r="65" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>58</v>
@@ -3526,13 +3517,13 @@
     </row>
     <row r="66" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>58</v>
@@ -3547,13 +3538,13 @@
     </row>
     <row r="67" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>58</v>
@@ -3568,13 +3559,13 @@
     </row>
     <row r="68" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>58</v>
@@ -3589,13 +3580,13 @@
     </row>
     <row r="69" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>58</v>
@@ -3610,19 +3601,19 @@
     </row>
     <row r="70" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>19</v>
@@ -3631,19 +3622,19 @@
     </row>
     <row r="71" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>19</v>
@@ -3652,16 +3643,16 @@
     </row>
     <row r="72" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>18</v>
@@ -3673,19 +3664,19 @@
     </row>
     <row r="73" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>19</v>
@@ -3694,16 +3685,16 @@
     </row>
     <row r="74" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>28</v>
@@ -3715,19 +3706,19 @@
     </row>
     <row r="75" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>19</v>
@@ -3736,16 +3727,16 @@
     </row>
     <row r="76" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>18</v>
@@ -3757,16 +3748,16 @@
     </row>
     <row r="77" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>18</v>
@@ -3778,19 +3769,19 @@
     </row>
     <row r="78" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>19</v>
@@ -3799,19 +3790,19 @@
     </row>
     <row r="79" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>19</v>
@@ -3820,16 +3811,16 @@
     </row>
     <row r="80" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>18</v>
@@ -3841,16 +3832,16 @@
     </row>
     <row r="81" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>18</v>
@@ -3862,16 +3853,16 @@
     </row>
     <row r="82" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>18</v>
@@ -3883,16 +3874,16 @@
     </row>
     <row r="83" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>18</v>
@@ -3904,19 +3895,19 @@
     </row>
     <row r="84" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>19</v>
@@ -3925,16 +3916,16 @@
     </row>
     <row r="85" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>28</v>
@@ -3946,19 +3937,19 @@
     </row>
     <row r="86" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>19</v>
@@ -3967,16 +3958,16 @@
     </row>
     <row r="87" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>18</v>
@@ -3988,16 +3979,16 @@
     </row>
     <row r="88" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>18</v>
@@ -4009,16 +4000,16 @@
     </row>
     <row r="89" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>18</v>
@@ -4030,16 +4021,16 @@
     </row>
     <row r="90" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>18</v>
@@ -4051,16 +4042,16 @@
     </row>
     <row r="91" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>18</v>
@@ -4072,19 +4063,19 @@
     </row>
     <row r="92" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>19</v>
@@ -4093,19 +4084,19 @@
     </row>
     <row r="93" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>19</v>
@@ -4114,16 +4105,16 @@
     </row>
     <row r="94" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>18</v>
@@ -4135,16 +4126,16 @@
     </row>
     <row r="95" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>18</v>
@@ -4156,16 +4147,16 @@
     </row>
     <row r="96" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>18</v>
@@ -4177,16 +4168,16 @@
     </row>
     <row r="97" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>18</v>
@@ -4198,16 +4189,16 @@
     </row>
     <row r="98" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>18</v>
@@ -4219,16 +4210,16 @@
     </row>
     <row r="99" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>18</v>
@@ -4240,19 +4231,19 @@
     </row>
     <row r="100" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>19</v>
@@ -4261,16 +4252,16 @@
     </row>
     <row r="101" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>28</v>
@@ -4282,19 +4273,19 @@
     </row>
     <row r="102" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>19</v>
@@ -4303,16 +4294,16 @@
     </row>
     <row r="103" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>18</v>
@@ -4324,16 +4315,16 @@
     </row>
     <row r="104" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>18</v>
@@ -4345,19 +4336,19 @@
     </row>
     <row r="105" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>19</v>
@@ -4366,19 +4357,19 @@
     </row>
     <row r="106" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>19</v>
@@ -4387,19 +4378,19 @@
     </row>
     <row r="107" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>19</v>
@@ -4408,16 +4399,16 @@
     </row>
     <row r="108" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>28</v>
@@ -4429,19 +4420,19 @@
     </row>
     <row r="109" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>19</v>
@@ -4450,16 +4441,16 @@
     </row>
     <row r="110" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>18</v>
@@ -4471,19 +4462,19 @@
     </row>
     <row r="111" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>19</v>
@@ -4492,19 +4483,19 @@
     </row>
     <row r="112" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>19</v>
@@ -4513,19 +4504,19 @@
     </row>
     <row r="113" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>19</v>
@@ -4534,19 +4525,19 @@
     </row>
     <row r="114" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>19</v>
@@ -4555,16 +4546,16 @@
     </row>
     <row r="115" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>18</v>
@@ -4576,19 +4567,19 @@
     </row>
     <row r="116" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>19</v>
@@ -4597,16 +4588,16 @@
     </row>
     <row r="117" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>28</v>
@@ -4618,19 +4609,19 @@
     </row>
     <row r="118" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>19</v>
@@ -4639,16 +4630,16 @@
     </row>
     <row r="119" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>18</v>
@@ -4660,16 +4651,16 @@
     </row>
     <row r="120" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>18</v>
@@ -4681,16 +4672,16 @@
     </row>
     <row r="121" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>18</v>
@@ -4702,16 +4693,16 @@
     </row>
     <row r="122" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>18</v>
@@ -4723,19 +4714,19 @@
     </row>
     <row r="123" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>19</v>
@@ -4744,19 +4735,19 @@
     </row>
     <row r="124" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>19</v>
@@ -4765,16 +4756,16 @@
     </row>
     <row r="125" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>18</v>
@@ -4786,16 +4777,16 @@
     </row>
     <row r="126" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>221</v>
+        <v>382</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>18</v>
@@ -4807,16 +4798,16 @@
     </row>
     <row r="127" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>18</v>
@@ -4828,16 +4819,16 @@
     </row>
     <row r="128" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>18</v>
@@ -4849,19 +4840,19 @@
     </row>
     <row r="129" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>19</v>
@@ -4870,45 +4861,24 @@
     </row>
     <row r="130" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/选课名单.xlsx
+++ b/选课名单.xlsx
@@ -39,9 +39,6 @@
     <t>学分：3</t>
   </si>
   <si>
-    <t>上课人数：123</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -948,278 +945,297 @@
     <t>18020024033</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>18020024034</t>
+  </si>
+  <si>
+    <t>孙立</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>18020024035</t>
+  </si>
+  <si>
+    <t>孙立远</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>18020024036</t>
+  </si>
+  <si>
+    <t>汤婧</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>18020024037</t>
+  </si>
+  <si>
+    <t>唐淇林</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>18020024038</t>
+  </si>
+  <si>
+    <t>田同晓</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>18020024039</t>
+  </si>
+  <si>
+    <t>汪晗</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>18020024040</t>
+  </si>
+  <si>
+    <t>王浩雨</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>18020024041</t>
+  </si>
+  <si>
+    <t>王茂宇</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>18020024042</t>
+  </si>
+  <si>
+    <t>王楠</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>18020024043</t>
+  </si>
+  <si>
+    <t>王洋</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>18020024044</t>
+  </si>
+  <si>
+    <t>王意嘉</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>18020024045</t>
+  </si>
+  <si>
+    <t>王子豪</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>18020024046</t>
+  </si>
+  <si>
+    <t>吴瑞瑞</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>18020024047</t>
+  </si>
+  <si>
+    <t>熊映雪</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>18020024048</t>
+  </si>
+  <si>
+    <t>徐一锦</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>18020024049</t>
+  </si>
+  <si>
+    <t>薛韶华</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>18020024050</t>
+  </si>
+  <si>
+    <t>闫浩宇</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>18020024051</t>
+  </si>
+  <si>
+    <t>殷鸿宙</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>18020024052</t>
+  </si>
+  <si>
+    <t>张渊</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>18020024053</t>
+  </si>
+  <si>
+    <t>赵启越</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>18020024054</t>
+  </si>
+  <si>
+    <t>郑好</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>18020024055</t>
+  </si>
+  <si>
+    <t>周圣才</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>18020024056</t>
+  </si>
+  <si>
+    <t>周业洪</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>18080012035</t>
+  </si>
+  <si>
+    <t>刘嘉辰</t>
+  </si>
+  <si>
+    <t>药学 2018</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>18130061019</t>
+  </si>
+  <si>
+    <t>李远航</t>
+  </si>
+  <si>
+    <t>朝鲜语 2018</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>18140011001</t>
+  </si>
+  <si>
+    <t>闭舒磊</t>
+  </si>
+  <si>
+    <t>汉语言文学 2018</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>18170023033</t>
+  </si>
+  <si>
+    <t>王萌</t>
+  </si>
+  <si>
+    <t>材料科学与工程 2018</t>
+  </si>
+  <si>
+    <t>18180021021</t>
+  </si>
+  <si>
+    <t>田家维</t>
+  </si>
+  <si>
+    <t>教育技术学 2018</t>
+  </si>
+  <si>
     <t>宋昱琛</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>18020024034</t>
-  </si>
-  <si>
-    <t>孙立</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>18020024035</t>
-  </si>
-  <si>
-    <t>孙立远</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>18020024036</t>
-  </si>
-  <si>
-    <t>汤婧</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>18020024037</t>
-  </si>
-  <si>
-    <t>唐淇林</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>18020024038</t>
-  </si>
-  <si>
-    <t>田同晓</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>18020024039</t>
-  </si>
-  <si>
-    <t>汪晗</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>18020024040</t>
-  </si>
-  <si>
-    <t>王浩雨</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>18020024041</t>
-  </si>
-  <si>
-    <t>王茂宇</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>18020024042</t>
-  </si>
-  <si>
-    <t>王楠</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>18020024043</t>
-  </si>
-  <si>
-    <t>王洋</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>18020024044</t>
-  </si>
-  <si>
-    <t>王意嘉</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>18020024045</t>
-  </si>
-  <si>
-    <t>王子豪</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>18020024046</t>
-  </si>
-  <si>
-    <t>吴瑞瑞</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>18020024047</t>
-  </si>
-  <si>
-    <t>熊映雪</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>18020024048</t>
-  </si>
-  <si>
-    <t>徐一锦</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>18020024049</t>
-  </si>
-  <si>
-    <t>薛韶华</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>18020024050</t>
-  </si>
-  <si>
-    <t>闫浩宇</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>18020024051</t>
-  </si>
-  <si>
-    <t>殷鸿宙</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>18020024052</t>
-  </si>
-  <si>
-    <t>张渊</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>18020024053</t>
-  </si>
-  <si>
-    <t>赵启越</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>18020024054</t>
-  </si>
-  <si>
-    <t>郑好</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>18020024055</t>
-  </si>
-  <si>
-    <t>周圣才</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>18020024056</t>
-  </si>
-  <si>
-    <t>周业洪</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>18080012035</t>
-  </si>
-  <si>
-    <t>刘嘉辰</t>
-  </si>
-  <si>
-    <t>药学 2018</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>18130061019</t>
-  </si>
-  <si>
-    <t>李远航</t>
-  </si>
-  <si>
-    <t>朝鲜语 2018</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>18140011001</t>
-  </si>
-  <si>
-    <t>闭舒磊</t>
-  </si>
-  <si>
-    <t>汉语言文学 2018</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>18170023033</t>
-  </si>
-  <si>
-    <t>王萌</t>
-  </si>
-  <si>
-    <t>材料科学与工程 2018</t>
-  </si>
-  <si>
-    <t>18180021021</t>
-  </si>
-  <si>
-    <t>田家维</t>
-  </si>
-  <si>
-    <t>教育技术学 2018</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上课人数：12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1410,8 +1426,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1597,6 +1630,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1857,7 +1896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1877,6 +1916,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2202,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2285,8 +2336,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
+      <c r="A7" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2297,2591 +2348,2592 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="D76" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D91" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="D94" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="D97" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>19</v>
+      <c r="A102" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G118" s="3"/>
     </row>
     <row r="119" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G125" s="3"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G129" s="3"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G130" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>